--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2476.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2476.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176489365298644</v>
+        <v>1.690954089164734</v>
       </c>
       <c r="B1">
-        <v>2.809584305485446</v>
+        <v>2.28130054473877</v>
       </c>
       <c r="C1">
-        <v>5.831773979204381</v>
+        <v>5.160366058349609</v>
       </c>
       <c r="D1">
-        <v>3.862595087420731</v>
+        <v>1.377427101135254</v>
       </c>
       <c r="E1">
-        <v>1.052240958986105</v>
+        <v>0.650273859500885</v>
       </c>
     </row>
   </sheetData>
